--- a/Assets/__Project/Excel/ConstantTable/Round.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/Round.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\Constant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18057C15-554F-480B-9D90-38CD50519BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3051F8-1DC4-4D82-B1D4-19D1619092C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33630" yWindow="2745" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>다음 Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환 Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,11 +450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B2050-A0C3-4ED6-A914-8474FA4A2226}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -454,7 +462,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,10 +470,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,10 +484,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -484,10 +498,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -495,10 +512,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -506,10 +526,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -517,10 +540,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -528,6 +554,9 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
         <v>10</v>
       </c>
     </row>

--- a/Assets/__Project/Excel/ConstantTable/Round.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/Round.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3051F8-1DC4-4D82-B1D4-19D1619092C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7B0123-83E4-46CB-88EA-949B1E544BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33630" yWindow="2745" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="6510" yWindow="3330" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spawnId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소환 Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnEventIds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,12 +454,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -470,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -484,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>

--- a/Assets/__Project/Excel/ConstantTable/Round.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/Round.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7B0123-83E4-46CB-88EA-949B1E544BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21257C28-CB9A-4662-8FED-6FD4A2E99947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="3330" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="30870" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>spawnEventIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveItemIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 아이템 이벤트 Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,21 +458,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B2050-A0C3-4ED6-A914-8474FA4A2226}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,10 +484,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,10 +501,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -503,10 +518,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -517,10 +535,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -531,10 +552,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -545,10 +569,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -559,6 +586,9 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
         <v>10</v>
       </c>
     </row>
